--- a/teste.xlsx
+++ b/teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>robertinho</t>
+          <t>bona final boss</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16000000</t>
+          <t>9999</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bona</t>
+          <t>bona semi boss</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>123123</t>
+          <t>2501</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>bona</t>
+          <t>diego</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8000</t>
+          <t>1935</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>diego</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1891</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>felps</t>
+          <t>diego</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1826</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,52 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mandy</t>
+          <t>diego</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1791</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7º</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>diego</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1424</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8º</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>diego</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1423</t>
         </is>
       </c>
     </row>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>diego</t>
+          <t>testando</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>1919</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>1891</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1791</t>
+          <t>1826</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>1791</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,67 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1424</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9º</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>diego</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>1423</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10º</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>testando2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11º</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>teatando2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-500</t>
         </is>
       </c>
     </row>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bona semi boss</t>
+          <t>felipe</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>2446</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>diego</t>
+          <t>matheus</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>2430</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>testando</t>
+          <t>Diegowl</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>2344</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>diego</t>
+          <t>Esther linda</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>2310</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>diego</t>
+          <t>bona</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>1951</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>diego</t>
+          <t>oi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1791</t>
+          <t>1944</t>
         </is>
       </c>
     </row>
@@ -601,72 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>diego</t>
+          <t>last dance</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1424</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>9º</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>diego</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1423</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>10º</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>testando2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11º</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>teatando2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-500</t>
         </is>
       </c>
     </row>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>felipe</t>
+          <t>bona</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2446</t>
+          <t>2461</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>matheus</t>
+          <t>felipe</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2430</t>
+          <t>2446</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Diegowl</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2436</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Esther linda</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>2430</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bona</t>
+          <t>matheus</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>2430</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>oi</t>
+          <t>Diegowl</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>2344</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,72 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Esther linda</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2310</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9º</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>last dance</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10º</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>oi</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11º</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>felca</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1422</t>
         </is>
       </c>
     </row>
